--- a/classification_document_3classes/result.xlsx
+++ b/classification_document_3classes/result.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YShimada-MBP16/Documents/Code_Github/DL_for_ImageData_and_Finetuning/classification_document_3classes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004C71E9-933B-074E-8F45-BFA85386CDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93167C62-C28E-9D43-A05E-4A230F326AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38720" yWindow="500" windowWidth="29500" windowHeight="18680" xr2:uid="{35BD3C06-3FFE-9544-B306-5CBCCEE6326C}"/>
+    <workbookView xWindow="46160" yWindow="3280" windowWidth="25740" windowHeight="18160" xr2:uid="{35BD3C06-3FFE-9544-B306-5CBCCEE6326C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Performance_TestData" sheetId="1" r:id="rId1"/>
+    <sheet name="Speed" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="23">
   <si>
     <t>email</t>
     <phoneticPr fontId="1"/>
@@ -62,10 +63,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DAI supervised classification</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>LG (CLIP) zero shot classification</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -75,6 +72,98 @@
   </si>
   <si>
     <t>Accuracy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DAI Image Supervised Classification</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OCR (PaddleOCR) + DAI Text Supervised Classification (TFIDF)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>min</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Steps</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学習</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ガクシュウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>推論</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">スイロン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学習データを用いたモデル学習</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ガクシュウデータヲ </t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">モチイタ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストデータの推論</t>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">スイロン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OCRによるテキスト抽出（学習データ）</t>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">チュウシュツ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ガクシュウデータ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキスト学習データを用いたモデル学習</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ガクシュウデータヲ </t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t xml:space="preserve">モチイタ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ガクシュウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OCRによるテキスト抽出（テストデータ）</t>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">チュウシュツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Approaches</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストデータをラベリングするまでにかかる時間。N(学習データ)=135、N(テストデータ)=30</t>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">ガクシュウデータ </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -83,7 +172,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="183" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -119,7 +208,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -194,48 +283,284 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212D0AF7-7A89-5C4B-A9AD-0975F60F2006}">
-  <dimension ref="B2:J25"/>
+  <dimension ref="B2:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -586,106 +911,106 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="10" t="s">
-        <v>6</v>
+      <c r="B2" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:10">
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="2:10" ht="42">
-      <c r="D4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
         <v>9</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
         <f>SUM(D5:F5)</f>
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="3"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>8</v>
       </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
         <f t="shared" ref="G6:G8" si="0">SUM(D6:F6)</f>
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="3"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <f>SUM(D5:D7)</f>
         <v>11</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <f t="shared" ref="E8:F8" si="1">SUM(E5:E7)</f>
         <v>9</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="I8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J8">
         <f>(D5+E6+F7)/G8</f>
@@ -693,108 +1018,106 @@
       </c>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="10" t="s">
-        <v>7</v>
+      <c r="B10" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:10">
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="1"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="2:10" ht="42">
-      <c r="D12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="D12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="C13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
         <v>4</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>5</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <f>SUM(D13:F13)</f>
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="3"/>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>9</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <f t="shared" ref="G14:G16" si="2">SUM(D14:F14)</f>
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="3"/>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>10</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:10">
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <f>SUM(D13:D15)</f>
         <v>4</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <f t="shared" ref="E16" si="3">SUM(E13:E15)</f>
         <v>2</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <f t="shared" ref="F16" si="4">SUM(F13:F15)</f>
         <v>24</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="I16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J16">
         <f>(D13+E14+F15)/G16</f>
@@ -802,108 +1125,108 @@
       </c>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="10" t="s">
-        <v>8</v>
+      <c r="B18" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="2:10" ht="42">
-      <c r="D20" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="D20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2">
-        <v>10</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="C21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
         <f>SUM(D21:F21)</f>
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="3"/>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="10"/>
+      <c r="C22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>4</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>4</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="1">
         <f t="shared" ref="G22:G24" si="5">SUM(D22:F22)</f>
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="3"/>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="2">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2">
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
         <v>9</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="1">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="2:10">
-      <c r="D24" s="6">
+      <c r="D24" s="4">
         <f>SUM(D21:D23)</f>
         <v>14</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="4">
         <f t="shared" ref="E24" si="6">SUM(E21:E23)</f>
         <v>1</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="4">
         <f t="shared" ref="F24" si="7">SUM(F21:F23)</f>
         <v>13</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="1">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="I24" t="s">
-        <v>9</v>
-      </c>
-      <c r="J24" s="11">
+        <v>8</v>
+      </c>
+      <c r="J24" s="9">
         <f>(D21+E22+F23)/G24</f>
         <v>0.7142857142857143</v>
       </c>
@@ -913,16 +1236,306 @@
         <v>5</v>
       </c>
     </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="D28" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="2:10" ht="42">
+      <c r="D29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>10</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <f>SUM(D30:F30)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="10"/>
+      <c r="C31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>10</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" ref="G31:G33" si="8">SUM(D31:F31)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="10"/>
+      <c r="C32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>10</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10">
+      <c r="D33" s="4">
+        <f>SUM(D30:D32)</f>
+        <v>10</v>
+      </c>
+      <c r="E33" s="4">
+        <f t="shared" ref="E33:F33" si="9">SUM(E30:E32)</f>
+        <v>10</v>
+      </c>
+      <c r="F33" s="4">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="I33" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="9">
+        <f>(D30+E31+F32)/G33</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="B30:B32"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="D19:F19"/>
-    <mergeCell ref="B21:B23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F3DE62-A584-B44A-A486-B7CE49F289FB}">
+  <dimension ref="B2:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="2" width="55.140625" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="21" thickBot="1"/>
+    <row r="4" spans="2:5" ht="21" thickBot="1">
+      <c r="B4" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="13">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="22"/>
+      <c r="C6" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="21" thickBot="1">
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19">
+        <f>SUM(E5:E6)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="21" thickBot="1">
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16">
+        <f>SUM(E8)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="21" thickBot="1">
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19">
+        <f>SUM(E10)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="14"/>
+      <c r="C14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="22"/>
+      <c r="C15" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="21" thickBot="1">
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19">
+        <f>SUM(E12:E15)</f>
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/classification_document_3classes/result.xlsx
+++ b/classification_document_3classes/result.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YShimada-MBP16/Documents/Code_Github/DL_for_ImageData_and_Finetuning/classification_document_3classes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93167C62-C28E-9D43-A05E-4A230F326AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D47BB46-30F0-734B-9311-E46D02C181D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46160" yWindow="3280" windowWidth="25740" windowHeight="18160" xr2:uid="{35BD3C06-3FFE-9544-B306-5CBCCEE6326C}"/>
+    <workbookView xWindow="38520" yWindow="2400" windowWidth="25740" windowHeight="18160" xr2:uid="{35BD3C06-3FFE-9544-B306-5CBCCEE6326C}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance_TestData" sheetId="1" r:id="rId1"/>
     <sheet name="Speed" sheetId="2" r:id="rId2"/>
+    <sheet name="Summary" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="26">
   <si>
     <t>email</t>
     <phoneticPr fontId="1"/>
@@ -164,6 +165,18 @@
     <rPh sb="25" eb="27">
       <t xml:space="preserve">ガクシュウデータ </t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scoring Time (min). N(Test)=30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Training Time (min). N(Train)=135</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>None</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -208,7 +221,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -468,13 +481,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -505,62 +578,110 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -898,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212D0AF7-7A89-5C4B-A9AD-0975F60F2006}">
   <dimension ref="B2:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -916,11 +1037,11 @@
       </c>
     </row>
     <row r="3" spans="2:10">
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="2:10" ht="42">
       <c r="D4" s="1" t="s">
@@ -934,7 +1055,7 @@
       </c>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -955,7 +1076,7 @@
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="10"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
@@ -974,7 +1095,7 @@
       </c>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="10"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -1023,11 +1144,11 @@
       </c>
     </row>
     <row r="11" spans="2:10">
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="2:10" ht="42">
       <c r="D12" s="1" t="s">
@@ -1041,7 +1162,7 @@
       </c>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1062,7 +1183,7 @@
       </c>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="10"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="2" t="s">
         <v>1</v>
       </c>
@@ -1081,7 +1202,7 @@
       </c>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="10"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="2" t="s">
         <v>2</v>
       </c>
@@ -1130,11 +1251,11 @@
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" spans="2:10" ht="42">
       <c r="D20" s="5" t="s">
@@ -1148,7 +1269,7 @@
       </c>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1169,7 +1290,7 @@
       </c>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="10"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1188,7 +1309,7 @@
       </c>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="10"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
@@ -1242,11 +1363,11 @@
       </c>
     </row>
     <row r="28" spans="2:10">
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
     </row>
     <row r="29" spans="2:10" ht="42">
       <c r="D29" s="5" t="s">
@@ -1260,7 +1381,7 @@
       </c>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1281,7 +1402,7 @@
       </c>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="10"/>
+      <c r="B31" s="27"/>
       <c r="C31" s="1" t="s">
         <v>1</v>
       </c>
@@ -1300,7 +1421,7 @@
       </c>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="10"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="1" t="s">
         <v>2</v>
       </c>
@@ -1364,7 +1485,7 @@
   <dimension ref="B2:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1381,157 +1502,246 @@
     </row>
     <row r="3" spans="2:5" ht="21" thickBot="1"/>
     <row r="4" spans="2:5" ht="21" thickBot="1">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="22"/>
-      <c r="C6" s="23" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="21" thickBot="1">
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19">
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17">
         <f>SUM(E5:E6)</f>
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="21" thickBot="1">
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16">
+      <c r="B9" s="13"/>
+      <c r="E9" s="14">
         <f>SUM(E8)</f>
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="21" thickBot="1">
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19">
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17">
         <f>SUM(E10)</f>
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="14"/>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="14"/>
-      <c r="C14" s="15" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="14">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="22"/>
-      <c r="C15" s="23" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="21" thickBot="1">
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19">
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17">
         <f>SUM(E12:E15)</f>
         <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00997DB-DEB5-2B49-B558-8A120CFB4246}">
+  <dimension ref="B2:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="2" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" s="28"/>
+    </row>
+    <row r="3" spans="2:5" ht="63">
+      <c r="B3" s="29"/>
+      <c r="C3" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="39">
+        <v>0.9</v>
+      </c>
+      <c r="D4" s="31">
+        <v>37</v>
+      </c>
+      <c r="E4" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="40">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="42">
+        <v>1</v>
+      </c>
+      <c r="D7" s="44">
+        <v>38</v>
+      </c>
+      <c r="E7" s="7">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/classification_document_3classes/result.xlsx
+++ b/classification_document_3classes/result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YShimada-MBP16/Documents/Code_Github/DL_for_ImageData_and_Finetuning/classification_document_3classes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D47BB46-30F0-734B-9311-E46D02C181D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D8E826-F46F-0F4B-B68D-71DFAF31323F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38520" yWindow="2400" windowWidth="25740" windowHeight="18160" xr2:uid="{35BD3C06-3FFE-9544-B306-5CBCCEE6326C}"/>
+    <workbookView xWindow="38560" yWindow="2400" windowWidth="25700" windowHeight="18160" activeTab="2" xr2:uid="{35BD3C06-3FFE-9544-B306-5CBCCEE6326C}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance_TestData" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="27">
   <si>
     <t>email</t>
     <phoneticPr fontId="1"/>
@@ -177,6 +177,10 @@
   </si>
   <si>
     <t>None</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VLM (gpt-4o-mini (2025/1/16)) generation</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -547,7 +551,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -629,59 +633,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1017,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212D0AF7-7A89-5C4B-A9AD-0975F60F2006}">
-  <dimension ref="B2:J33"/>
+  <dimension ref="B2:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1037,11 +1038,11 @@
       </c>
     </row>
     <row r="3" spans="2:10">
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
     </row>
     <row r="4" spans="2:10" ht="42">
       <c r="D4" s="1" t="s">
@@ -1055,7 +1056,7 @@
       </c>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="43" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1076,7 +1077,7 @@
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="27"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1095,7 +1096,7 @@
       </c>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="27"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -1144,11 +1145,11 @@
       </c>
     </row>
     <row r="11" spans="2:10">
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
     </row>
     <row r="12" spans="2:10" ht="42">
       <c r="D12" s="1" t="s">
@@ -1162,7 +1163,7 @@
       </c>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="43" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1183,7 +1184,7 @@
       </c>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="27"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="2" t="s">
         <v>1</v>
       </c>
@@ -1202,7 +1203,7 @@
       </c>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="27"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="2" t="s">
         <v>2</v>
       </c>
@@ -1251,11 +1252,11 @@
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
     </row>
     <row r="20" spans="2:10" ht="42">
       <c r="D20" s="5" t="s">
@@ -1269,7 +1270,7 @@
       </c>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="43" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1290,7 +1291,7 @@
       </c>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="27"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1309,7 +1310,7 @@
       </c>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="27"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
@@ -1359,15 +1360,15 @@
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="8" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="2:10">
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
     </row>
     <row r="29" spans="2:10" ht="42">
       <c r="D29" s="5" t="s">
@@ -1381,7 +1382,7 @@
       </c>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="43" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1402,7 +1403,7 @@
       </c>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="27"/>
+      <c r="B31" s="43"/>
       <c r="C31" s="1" t="s">
         <v>1</v>
       </c>
@@ -1410,10 +1411,10 @@
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" ref="G31:G33" si="8">SUM(D31:F31)</f>
@@ -1421,7 +1422,7 @@
       </c>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="27"/>
+      <c r="B32" s="43"/>
       <c r="C32" s="1" t="s">
         <v>2</v>
       </c>
@@ -1439,18 +1440,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="4:10">
+    <row r="33" spans="2:10">
       <c r="D33" s="4">
         <f>SUM(D30:D32)</f>
         <v>10</v>
       </c>
       <c r="E33" s="4">
         <f t="shared" ref="E33:F33" si="9">SUM(E30:E32)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F33" s="4">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" si="8"/>
@@ -1461,19 +1462,128 @@
       </c>
       <c r="J33" s="9">
         <f>(D30+E31+F32)/G33</f>
+        <v>0.93333333333333335</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="D36" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+    </row>
+    <row r="37" spans="2:10" ht="42">
+      <c r="D37" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="F37" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>10</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <f>SUM(D38:F38)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="43"/>
+      <c r="C39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>10</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" ref="G39:G41" si="10">SUM(D39:F39)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="43"/>
+      <c r="C40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>10</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="D41" s="4">
+        <f>SUM(D38:D40)</f>
+        <v>10</v>
+      </c>
+      <c r="E41" s="4">
+        <f t="shared" ref="E41:F41" si="11">SUM(E38:E40)</f>
+        <v>10</v>
+      </c>
+      <c r="F41" s="4">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+      <c r="I41" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="9">
+        <f>(D38+E39+F40)/G41</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="B21:B23"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="B38:B40"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="B30:B32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1482,10 +1592,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F3DE62-A584-B44A-A486-B7CE49F289FB}">
-  <dimension ref="B2:E16"/>
+  <dimension ref="B2:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1595,61 +1705,84 @@
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="25">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="21" thickBot="1">
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17">
+        <f>SUM(E12)</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E14" s="12">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="13"/>
-      <c r="C13" t="s">
+    <row r="15" spans="2:5">
+      <c r="B15" s="13"/>
+      <c r="C15" t="s">
         <v>19</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E15" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="13"/>
-      <c r="C14" t="s">
+    <row r="16" spans="2:5">
+      <c r="B16" s="13"/>
+      <c r="C16" t="s">
         <v>20</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D16" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E16" s="14">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="20"/>
-      <c r="C15" s="21" t="s">
+    <row r="17" spans="2:5">
+      <c r="B17" s="20"/>
+      <c r="C17" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D17" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="21" thickBot="1">
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17">
-        <f>SUM(E12:E15)</f>
+      <c r="E17" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="21" thickBot="1">
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17">
+        <f>SUM(E14:E17)</f>
         <v>46</v>
       </c>
     </row>
@@ -1661,10 +1794,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00997DB-DEB5-2B49-B558-8A120CFB4246}">
-  <dimension ref="B2:E7"/>
+  <dimension ref="B3:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1673,43 +1806,40 @@
     <col min="4" max="5" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" s="28"/>
-    </row>
     <row r="3" spans="2:5" ht="63">
-      <c r="B3" s="29"/>
-      <c r="C3" s="36" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="36" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="37">
         <v>0.9</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="29">
         <v>37</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="40">
         <v>0.5</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="41" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="7">
@@ -1717,30 +1847,44 @@
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="39" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="40">
         <v>0.7142857142857143</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="42">
+      <c r="B7" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="38">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="33">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="40">
         <v>1</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D8" s="42">
         <v>38</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E8" s="7">
         <v>7</v>
       </c>
     </row>
